--- a/testOrganic-examples/Data Files/items.xlsx
+++ b/testOrganic-examples/Data Files/items.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,19 @@
     <t>supplier</t>
   </si>
   <si>
-    <t>MOUSE</t>
-  </si>
-  <si>
     <t>SMALL PACKS</t>
   </si>
   <si>
     <t>MALIBAN PVT LTD</t>
   </si>
   <si>
-    <t>PURSE</t>
-  </si>
-  <si>
-    <t>FALUDA MARI 100</t>
+    <t>A4 Paper</t>
+  </si>
+  <si>
+    <t>A3 Paper</t>
+  </si>
+  <si>
+    <t>A5 Paper</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,7 +173,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,14 +385,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -414,13 +414,13 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -431,10 +431,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -445,10 +445,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
